--- a/sample_style.xlsx
+++ b/sample_style.xlsx
@@ -460,7 +460,10 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -468,7 +471,7 @@
     <col width="5" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>번호</t>
